--- a/data/respirometry/shallow/final_rates/400_rates.xlsx
+++ b/data/respirometry/shallow/final_rates/400_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z2">
-        <v>-0.2542733259288179</v>
+        <v>-0.2387391389365841</v>
       </c>
       <c r="AB2">
-        <v>-0.01017093303715271</v>
+        <v>-975.0013919541442</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.01017093303715271</v>
+        <v>-975.0013919541442</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z3">
-        <v>-0.2667960832769922</v>
+        <v>-0.2578282185186086</v>
       </c>
       <c r="AB3">
-        <v>-0.01067184333107969</v>
+        <v>-1731.58329144641</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.01067184333107969</v>
+        <v>-1731.58329144641</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z4">
-        <v>-0.1920857524853393</v>
+        <v>-0.1827411976190429</v>
       </c>
       <c r="AB4">
-        <v>-0.007683430099413573</v>
+        <v>-822.1187001185556</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.007683430099413573</v>
+        <v>-822.1187001185556</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z5">
-        <v>-0.2892466860241216</v>
+        <v>-0.265747140039218</v>
       </c>
       <c r="AB5">
-        <v>-0.01156986744096486</v>
+        <v>-1050.61964151663</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.01156986744096486</v>
+        <v>-1050.61964151663</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z6">
-        <v>-0.2921127419531664</v>
+        <v>-0.273584090574137</v>
       </c>
       <c r="AB6">
-        <v>-0.01168450967812666</v>
+        <v>-1477.54881087299</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.01168450967812666</v>
+        <v>-1477.54881087299</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z7">
-        <v>-0.2607651817430794</v>
+        <v>-0.2413256967761488</v>
       </c>
       <c r="AB7">
-        <v>-0.01043060726972318</v>
+        <v>-746.6075239755709</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.01043060726972318</v>
+        <v>-746.6075239755709</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,18 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>0</v>
+          <t>umolO2/min/m2</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1181,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z9">
-        <v>0.2615069367469974</v>
+        <v>0.2455308305614382</v>
       </c>
       <c r="AB9">
-        <v>0.0104602774698799</v>
+        <v>1002.738397362859</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.0104602774698799</v>
+        <v>1002.738397362859</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1268,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z10">
-        <v>0.3422171381082336</v>
+        <v>0.3307141318614385</v>
       </c>
       <c r="AB10">
-        <v>0.01368868552432934</v>
+        <v>2221.087622862896</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>0.01368868552432934</v>
+        <v>2221.087622862896</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1355,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z11">
-        <v>0.1554467240090574</v>
+        <v>0.1478845783397708</v>
       </c>
       <c r="AB11">
-        <v>0.006217868960362297</v>
+        <v>665.3052453214507</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.006217868960362297</v>
+        <v>665.3052453214507</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1442,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z12">
-        <v>0.3287108611087833</v>
+        <v>0.3020050892897799</v>
       </c>
       <c r="AB12">
-        <v>0.01314843444435133</v>
+        <v>1193.963850745493</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.01314843444435133</v>
+        <v>1193.963850745493</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1529,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z13">
-        <v>0.3527737219421752</v>
+        <v>0.3303973570296264</v>
       </c>
       <c r="AB13">
-        <v>0.01411094887768701</v>
+        <v>1784.380886221214</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.01411094887768701</v>
+        <v>1784.380886221214</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1616,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z14">
-        <v>0.242030301425579</v>
+        <v>0.2239874616006679</v>
       </c>
       <c r="AB14">
-        <v>0.00968121205702316</v>
+        <v>692.9669170804027</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>0.00968121205702316</v>
+        <v>692.9669170804027</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1703,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.001216379746716198</v>
-      </c>
-      <c r="AB15">
-        <v>4.865518986864794E-05</v>
+        <v>0.001216064704046756</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>4.865518986864794E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
